--- a/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f701_bao_cao_hop_dong_lao_dong.xlsx
+++ b/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f701_bao_cao_hop_dong_lao_dong.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,12 @@
       <sz val="8"/>
       <color indexed="9"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -121,21 +127,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,89 +463,90 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
